--- a/20-excel-based/210-models/110-workflow-model.xlsx
+++ b/20-excel-based/210-models/110-workflow-model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Tools\Automation\latest_code_base\berika3.0_final_branch\rs-pim-mdm\src\20-excel-based\210-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddh\Downloads\PMIeTron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E7BA88-80A4-45D6-9A4A-45A109444021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4DD0F-1574-4561-8573-2EAD1FD6A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF DATA" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,20 +24,20 @@
   </sheets>
   <definedNames>
     <definedName name="_BOOLEAN">'REF DATA'!$B$2:$B$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ACTIVITY ACTIONS'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$Y$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ACTIVITY ACTIONS'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$Y$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'WORKFLOW ACTIVITY RULES'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'WORKFLOW MAPPING'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">WORKFLOWS!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'WORKFLOW MAPPING'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">WORKFLOWS!$A$1:$F$14</definedName>
     <definedName name="_STATUS">'REF DATA'!$A$2:$A$5</definedName>
     <definedName name="_TYPE">'REF DATA'!$E$2:$E$3</definedName>
     <definedName name="BusinessRules">WORKFLOWS!$B2:$B1000</definedName>
-    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="4">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$W$235</definedName>
+    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="4">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$W$14</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="3">WORKFLOWS!$A$1:$F$1</definedName>
-    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="4">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$W$235</definedName>
+    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="4">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$W$14</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="3">WORKFLOWS!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Info:
 Assigned User will always be notified when notification is enabled.</t>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="202">
   <si>
     <t>STATUS</t>
   </si>
@@ -448,172 +448,241 @@
     <t>Visible</t>
   </si>
   <si>
-    <t>productitemenrichment</t>
+    <t>automatedstep</t>
+  </si>
+  <si>
+    <t>pmiseopmenrichment</t>
+  </si>
+  <si>
+    <t>v4.0</t>
+  </si>
+  <si>
+    <t>SEO PM Enrichment</t>
+  </si>
+  <si>
+    <t>PMIseoproductenrichment</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Product Item Enrichment</t>
-  </si>
-  <si>
-    <t>productenrichment</t>
-  </si>
-  <si>
-    <t>Product Enrichment</t>
-  </si>
-  <si>
-    <t>baseproductenrichment</t>
-  </si>
-  <si>
-    <t>Base Product Enrichment</t>
-  </si>
-  <si>
-    <t>manageproductname</t>
-  </si>
-  <si>
-    <t>qualityreview</t>
-  </si>
-  <si>
-    <t>Product Item Review</t>
-  </si>
-  <si>
-    <t>genericproductenrichment</t>
-  </si>
-  <si>
-    <t>Generic Product Enrichment</t>
-  </si>
-  <si>
-    <t>review</t>
+    <t>SEO Product Enrichment</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>pmiitcommercepmenrichment</t>
+  </si>
+  <si>
+    <t>v3.0</t>
+  </si>
+  <si>
+    <t>IT Commerce PM Enrichment</t>
+  </si>
+  <si>
+    <t>pmicategoryownerpmenrichment</t>
+  </si>
+  <si>
+    <t>Category Owner PM Enrichment</t>
+  </si>
+  <si>
+    <t>PMIcategoryownerproductenrichment</t>
+  </si>
+  <si>
+    <t>Category Owner Product Enrichment Workflow</t>
+  </si>
+  <si>
+    <t>PMIitcommerceproductenrichcment</t>
+  </si>
+  <si>
+    <t>IT Commerce Product Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_digitalGBEnrichment</t>
+  </si>
+  <si>
+    <t>PMI Digital GB Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_CSCGBEnrichment</t>
+  </si>
+  <si>
+    <t>PMI CSC GB Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_portfolioGBEnrichment</t>
+  </si>
+  <si>
+    <t>PMI Portfolio GB Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_serviceDeliveryGBEnrichment</t>
+  </si>
+  <si>
+    <t>PMI Service Delivery GB Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_newGBVariantEnrichment</t>
+  </si>
+  <si>
+    <t>PMI New GB Variant Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_contentGBEnrichment</t>
+  </si>
+  <si>
+    <t>PMI Content GB Enrichment</t>
+  </si>
+  <si>
+    <t>PMI_financeGBEnrichment</t>
+  </si>
+  <si>
+    <t>PMI Finance GB Enrichment</t>
+  </si>
+  <si>
     <t>Queue</t>
   </si>
   <si>
-    <t>systemadmin||pma||pmc||qr</t>
-  </si>
-  <si>
-    <t>Approve</t>
+    <t>Done</t>
   </si>
   <si>
     <t>[STOP]</t>
   </si>
   <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>systemadmin</t>
-  </si>
-  <si>
-    <t>Approve||Archived</t>
-  </si>
-  <si>
-    <t>[STOP]||[STOP]</t>
-  </si>
-  <si>
-    <t>approvalsandreview</t>
-  </si>
-  <si>
-    <t>systemadmin||pnadmin</t>
-  </si>
-  <si>
-    <t>legalapproval</t>
-  </si>
-  <si>
-    <t>Approvals and Review</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>systemadmin||pnlegaladmin</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Legal Approval</t>
-  </si>
-  <si>
-    <t>pnlegaladmin</t>
-  </si>
-  <si>
-    <t>systemadmin||qr</t>
-  </si>
-  <si>
-    <t>Switch hierarchy||Aligned</t>
-  </si>
-  <si>
-    <t>Quality Review</t>
-  </si>
-  <si>
-    <t>Approve.png</t>
-  </si>
-  <si>
-    <t>Archived</t>
-  </si>
-  <si>
-    <t>Not Approved</t>
-  </si>
-  <si>
-    <t>Not Approved.png</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Switch hierarchy</t>
-  </si>
-  <si>
-    <t>Aligned</t>
-  </si>
-  <si>
-    <t>genericproduct</t>
-  </si>
-  <si>
-    <t>salesitem</t>
-  </si>
-  <si>
-    <t>productitem</t>
-  </si>
-  <si>
-    <t>productstatus</t>
-  </si>
-  <si>
-    <t>productname</t>
-  </si>
-  <si>
-    <t>baseproduct</t>
-  </si>
-  <si>
-    <t>PNLegalAdmin action needed: Product Name assigned for legal approval</t>
-  </si>
-  <si>
-    <t>Hello, &lt;br&gt;&lt;br&gt; Approval required for following Product Name’s&lt;br&gt;&lt;table&gt;&lt;tr&gt;&lt;th&gt;Product Name&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt; &lt;a href="https://ikea.riversand.com/entity-manage?id={{ EntityId[] }}&amp;type={{ EntityType[] }}"&gt;{{ Attribute["entityname"] }}&lt;/a&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;br&gt;&lt;em&gt;This is an auto generated email. Please do not reply.&lt;/em&gt;&lt;br&gt;&lt;br&gt; Thanks,&lt;br&gt;IKEA PMDm Team</t>
-  </si>
-  <si>
-    <t>Manage Product Name</t>
-  </si>
-  <si>
-    <t>Marked Unusable</t>
-  </si>
-  <si>
-    <t>Approved without Legal</t>
-  </si>
-  <si>
-    <t>Approve||Marked Unusable</t>
-  </si>
-  <si>
-    <t>Approve||Not Approved||Approved without Legal</t>
-  </si>
-  <si>
-    <t>legalapproval||legalapproval</t>
-  </si>
-  <si>
-    <t>[STOP]||[STOP]||[STOP]</t>
+    <t>8c619265-7cc8-47a1-a27e-a8e9efee510e</t>
+  </si>
+  <si>
+    <t>systemadmin||pmi_globalseoteam||admin</t>
+  </si>
+  <si>
+    <t>pmidone</t>
+  </si>
+  <si>
+    <t>vishal.logiklee@outlook.com</t>
+  </si>
+  <si>
+    <t>New Product Model Created</t>
+  </si>
+  <si>
+    <t>Please enrich the new Product Model for further process.</t>
+  </si>
+  <si>
+    <t>d7b287b3-592a-4a85-8fb7-1c34bc425ea3</t>
+  </si>
+  <si>
+    <t>seoproductenrichment</t>
+  </si>
+  <si>
+    <t>admin||globalseoteam</t>
+  </si>
+  <si>
+    <t>systemadmin||admin</t>
+  </si>
+  <si>
+    <t>b0162663-d36a-4a4b-92af-d782e21f21b9</t>
+  </si>
+  <si>
+    <t>d2291404-fe36-4e14-b29e-2413447db197</t>
+  </si>
+  <si>
+    <t>systemadmin||pmi_categoryownerteam||admin</t>
+  </si>
+  <si>
+    <t>a1f1f221-cea5-4743-83f9-6f6cf01fdaea</t>
+  </si>
+  <si>
+    <t>categoryownerproductenrichment</t>
+  </si>
+  <si>
+    <t>admin||pmi_categoryownerteam</t>
+  </si>
+  <si>
+    <t>Category Owner Product Enrichment</t>
+  </si>
+  <si>
+    <t>558f9b67-00a1-440c-baed-d0d80f789d10</t>
+  </si>
+  <si>
+    <t>itcommerceproductenrichment</t>
+  </si>
+  <si>
+    <t>admin||itcommerce</t>
+  </si>
+  <si>
+    <t>e75d5465-a7aa-42c9-9061-39a9525005bd</t>
+  </si>
+  <si>
+    <t>admin||gbdigitalactivationteam</t>
+  </si>
+  <si>
+    <t>GB product enrichment by Digital</t>
+  </si>
+  <si>
+    <t>30369e20-c47f-42f3-b33e-757f40308762</t>
+  </si>
+  <si>
+    <t>admin||gbcustomerserviceteam</t>
+  </si>
+  <si>
+    <t>GB product enrichment by CSC</t>
+  </si>
+  <si>
+    <t>14faca51-898c-4931-abce-5c104ae74fea</t>
+  </si>
+  <si>
+    <t>admin||gbportfolioteam</t>
+  </si>
+  <si>
+    <t>GB product enrichment by Portfolio</t>
+  </si>
+  <si>
+    <t>f13c6c9a-2e4d-4b02-96a0-60565756b09b</t>
+  </si>
+  <si>
+    <t>admin||gbservicedeliveryteam</t>
+  </si>
+  <si>
+    <t>GB product enrichment by Service Delivery team</t>
+  </si>
+  <si>
+    <t>593164f1-3217-44fa-984a-1971ff505d02</t>
+  </si>
+  <si>
+    <t>New GB Variant Enrichment</t>
+  </si>
+  <si>
+    <t>86e6e845-a86c-4cff-885d-c012557d7d42</t>
+  </si>
+  <si>
+    <t>admin||gbcontentteam</t>
+  </si>
+  <si>
+    <t>GB product enrichment by Content</t>
+  </si>
+  <si>
+    <t>e90666b0-4bd8-40b6-a4e5-1ea907644732</t>
+  </si>
+  <si>
+    <t>admin||gbfinanceteam</t>
+  </si>
+  <si>
+    <t>GB product enrichment by Finance</t>
+  </si>
+  <si>
+    <t>PMI_product</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>market_GB</t>
+  </si>
+  <si>
+    <t>PMI_productModel</t>
   </si>
 </sst>
 </file>
@@ -664,17 +733,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,12 +778,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6FF"/>
         <bgColor rgb="FFDEEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -807,52 +870,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -917,22 +976,90 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1022,42 +1149,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1185120</xdr:colOff>
+      <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
+        <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB177A48-1696-47C8-95AF-3D849CC89770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113400" y="76320"/>
-          <a:ext cx="3252600" cy="448560"/>
+          <a:off x="581025" y="171450"/>
+          <a:ext cx="2590800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1331,7 +1468,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1569,7 @@
       <c r="M2" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1470,7 +1607,7 @@
       <c r="M3" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1512,6 +1649,9 @@
       </c>
       <c r="K5" t="s">
         <v>95</v>
+      </c>
+      <c r="M5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1577,10 +1717,10 @@
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22.5"/>
     <col min="3" max="3" width="11.8984375"/>
@@ -1590,7 +1730,7 @@
     <col min="7" max="1025" width="9.59765625"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1607,7 +1747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1675,42 +1815,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>38</v>
@@ -1725,117 +1865,231 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.8984375"/>
+    <col min="1" max="1" width="16.3984375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="56" style="22" customWidth="1"/>
+    <col min="3" max="3" width="0" style="22" hidden="1"/>
+    <col min="4" max="4" width="27.09765625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="39" style="24" customWidth="1"/>
+    <col min="6" max="6" width="36.59765625" style="24" customWidth="1"/>
+    <col min="7" max="1025" width="8.8984375" style="22"/>
+    <col min="1026" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>132</v>
+      <c r="E8" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
+      <sortCondition sortBy="cellColor" ref="B1:B14" dxfId="17"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1857,425 +2111,684 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.8984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.8984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.19921875" customWidth="1"/>
-    <col min="27" max="1024" width="8.8984375"/>
+    <col min="1" max="1" width="13.8984375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="22"/>
+    <col min="3" max="3" width="33.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="22"/>
+    <col min="5" max="5" width="14.69921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="23"/>
+    <col min="7" max="7" width="30.19921875" style="22"/>
+    <col min="8" max="8" width="36.5" style="22"/>
+    <col min="9" max="9" width="28.09765625" style="22"/>
+    <col min="10" max="10" width="46.3984375" style="22"/>
+    <col min="11" max="11" width="17.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.09765625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="21.59765625" style="22"/>
+    <col min="14" max="14" width="24.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.19921875" style="22" customWidth="1"/>
+    <col min="17" max="17" width="20.69921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.09765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="22" customWidth="1"/>
+    <col min="20" max="20" width="21.19921875" style="22"/>
+    <col min="21" max="21" width="22.69921875" style="22"/>
+    <col min="22" max="22" width="33.09765625" style="22"/>
+    <col min="23" max="23" width="33.69921875" style="22" customWidth="1"/>
+    <col min="24" max="24" width="26" style="22" customWidth="1"/>
+    <col min="25" max="25" width="23.59765625" style="22" customWidth="1"/>
+    <col min="26" max="26" width="8.19921875" style="22" customWidth="1"/>
+    <col min="27" max="1024" width="8.8984375" style="22"/>
+    <col min="1025" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="K2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="F9" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="F10" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="C12" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L5" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" t="s">
-        <v>152</v>
-      </c>
-      <c r="N5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="C13" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="S5" t="s">
-        <v>124</v>
-      </c>
-      <c r="V5" t="s">
-        <v>170</v>
-      </c>
-      <c r="W5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C14" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="K8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="H14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="N8" t="s">
-        <v>124</v>
+      <c r="K14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y8" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y8">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:Y14" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y14">
+      <sortCondition sortBy="cellColor" ref="B1:B14" dxfId="14"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B234">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B236:B251">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B252">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:L1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="C1:M1">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{EC9FC564-D29C-47F5-92A0-F9E2CD5CA0C5}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{EC9FC564-D29C-47F5-92A0-F9E2CD5CA0C5}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2303,9 +2816,9 @@
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D94AED1B-C044-4965-91B3-3C20B77932F5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28DA4763-DA21-4742-8EA9-0843DE226AE0}">
           <x14:formula1>
-            <xm:f>'REF DATA'!$M$2:$M$4</xm:f>
+            <xm:f>'REF DATA'!$M$2:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -2319,11 +2832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.3984375" customWidth="1"/>
     <col min="2" max="2" width="26.69921875" customWidth="1"/>
@@ -2336,312 +2849,355 @@
     <col min="9" max="1027" width="9.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C7" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G7" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
+      <c r="G14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0500-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:H14" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
+      <sortCondition sortBy="cellColor" ref="B1:B14" dxfId="11"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2674,201 +3230,363 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" customWidth="1"/>
-    <col min="4" max="4" width="25.09765625" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" customWidth="1"/>
-    <col min="6" max="6" width="23.8984375" customWidth="1"/>
-    <col min="7" max="7" width="36.09765625" customWidth="1"/>
-    <col min="8" max="8" width="35.3984375" customWidth="1"/>
-    <col min="9" max="1021" width="9.3984375"/>
+    <col min="1" max="1" width="12.3984375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19" style="22" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.8984375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="36.09765625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.3984375" style="22" customWidth="1"/>
+    <col min="9" max="1021" width="9.3984375" style="22"/>
+    <col min="1022" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
+      <c r="D13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H7">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:H14" xr:uid="{00000000-0001-0000-0600-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
+      <sortCondition sortBy="cellColor" ref="B1:B14" dxfId="8"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2901,7 +3619,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.69921875" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" customWidth="1"/>
@@ -2916,35 +3634,35 @@
     <col min="11" max="1023" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
